--- a/database_compare.xlsx
+++ b/database_compare.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9324" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9324" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TableName" sheetId="1" r:id="rId1"/>
     <sheet name="Nhanvien" sheetId="2" r:id="rId2"/>
+    <sheet name="Store" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="157">
   <si>
     <t>DOI_TAC</t>
   </si>
@@ -168,20 +169,341 @@
     <t>UpdatedBy</t>
   </si>
   <si>
-    <t>UserRole(deleted)</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
     <t>workDate</t>
+  </si>
+  <si>
+    <t>getAllTeamManageByUserId</t>
+  </si>
+  <si>
+    <t>getAllTeamManageByUserIdForDsHoso</t>
+  </si>
+  <si>
+    <t>getTailieuByHosoId</t>
+  </si>
+  <si>
+    <t>insertRoleMenu</t>
+  </si>
+  <si>
+    <t>removeTailieu</t>
+  </si>
+  <si>
+    <t>setRoleForUser</t>
+  </si>
+  <si>
+    <t>sp_AddMemberToTeam</t>
+  </si>
+  <si>
+    <t>sp_AllUserNotInTeam</t>
+  </si>
+  <si>
+    <t>sp_AUTOID_GetID</t>
+  </si>
+  <si>
+    <t>sp_AUTOID_Update</t>
+  </si>
+  <si>
+    <t>sp_CheckIsAdmin</t>
+  </si>
+  <si>
+    <t>sp_CheckIsTeamlead</t>
+  </si>
+  <si>
+    <t>sp_CountAllMemberByTeam</t>
+  </si>
+  <si>
+    <t>sp_CountChildTeamByParentId</t>
+  </si>
+  <si>
+    <t>sp_CountCustomer</t>
+  </si>
+  <si>
+    <t>sp_CountNhanvien</t>
+  </si>
+  <si>
+    <t>sp_Create_NhanvienQuyen</t>
+  </si>
+  <si>
+    <t>sp_CreateTeam</t>
+  </si>
+  <si>
+    <t>sp_DOI_TAC_LayDS</t>
+  </si>
+  <si>
+    <t>sp_DOI_TAC_LayIDByMaSanPham</t>
+  </si>
+  <si>
+    <t>sp_getAllEmployeeSimpleList</t>
+  </si>
+  <si>
+    <t>sp_GetAllMemberByTeam</t>
+  </si>
+  <si>
+    <t>sp_GetAllMenu</t>
+  </si>
+  <si>
+    <t>sp_getAllNhomSimpleList</t>
+  </si>
+  <si>
+    <t>sp_GetAllProduct</t>
+  </si>
+  <si>
+    <t>sp_GetAllUserInTeam</t>
+  </si>
+  <si>
+    <t>sp_GetChildTeamByParentId</t>
+  </si>
+  <si>
+    <t>sp_GetChildTeamByTeamId</t>
+  </si>
+  <si>
+    <t>sp_GetCustomer</t>
+  </si>
+  <si>
+    <t>sp_GetGhichuByHosoId</t>
+  </si>
+  <si>
+    <t>sp_getListPartnerForCustomerCheck</t>
+  </si>
+  <si>
+    <t>sp_GetMenuByRoleCode</t>
+  </si>
+  <si>
+    <t>sp_GetMenuByRoleId</t>
+  </si>
+  <si>
+    <t>sp_GetNhanvien</t>
+  </si>
+  <si>
+    <t>sp_GetNotesByCustomerId</t>
+  </si>
+  <si>
+    <t>sp_getPermissionByUserId</t>
+  </si>
+  <si>
+    <t>sp_GetTeamById</t>
+  </si>
+  <si>
+    <t>sp_HO_SO_CapNhat</t>
+  </si>
+  <si>
+    <t>sp_HO_SO_CapNhatDaXoa</t>
+  </si>
+  <si>
+    <t>sp_HO_SO_CapNhatHoSo</t>
+  </si>
+  <si>
+    <t>sp_HO_SO_CapNhatTrangThaiHS</t>
+  </si>
+  <si>
+    <t>sp_HO_SO_Count_TimHoSoDuyet</t>
+  </si>
+  <si>
+    <t>sp_HO_SO_Count_TimHoSoQuanLy</t>
+  </si>
+  <si>
+    <t>sp_HO_SO_DUYET_XEM_DaXem</t>
+  </si>
+  <si>
+    <t>sp_HO_SO_DUYET_XEM_Them</t>
+  </si>
+  <si>
+    <t>sp_HO_SO_LayChiTiet</t>
+  </si>
+  <si>
+    <t>sp_HO_SO_Them</t>
+  </si>
+  <si>
+    <t>sp_HO_SO_TimHoSoCuaToi</t>
+  </si>
+  <si>
+    <t>sp_HO_SO_TimHoSoCuaToiChuaXem</t>
+  </si>
+  <si>
+    <t>sp_HO_SO_TimHoSoDuyet</t>
+  </si>
+  <si>
+    <t>sp_HO_SO_TimHoSoDuyetChuaXem</t>
+  </si>
+  <si>
+    <t>sp_HO_SO_TimHoSoQuanLy</t>
+  </si>
+  <si>
+    <t>sp_HO_SO_XEM_DaXem</t>
+  </si>
+  <si>
+    <t>sp_HO_SO_XEM_Them</t>
+  </si>
+  <si>
+    <t>sp_InserCustomerCheck</t>
+  </si>
+  <si>
+    <t>sp_InsertCustomer</t>
+  </si>
+  <si>
+    <t>sp_InsertMenu</t>
+  </si>
+  <si>
+    <t>sp_InsertUser</t>
+  </si>
+  <si>
+    <t>sp_KET_QUA_HS_LayDSKetQua</t>
+  </si>
+  <si>
+    <t>sp_KHU_VUC_LayDSHuyen</t>
+  </si>
+  <si>
+    <t>sp_KHU_VUC_LayDSTinh</t>
+  </si>
+  <si>
+    <t>sp_KHU_VUC_LayMaTinhByMaHuyen</t>
+  </si>
+  <si>
+    <t>sp_LOAI_TAI_LIEU_LayDS</t>
+  </si>
+  <si>
+    <t>sp_NHAN_VIEN_CF_Them</t>
+  </si>
+  <si>
+    <t>sp_NHAN_VIEN_CF_Xoa</t>
+  </si>
+  <si>
+    <t>sp_NHAN_VIEN_GetUserByID</t>
+  </si>
+  <si>
+    <t>sp_NHAN_VIEN_LayDSByMaQL</t>
+  </si>
+  <si>
+    <t>sp_NHAN_VIEN_LayDSByRule</t>
+  </si>
+  <si>
+    <t>sp_NHAN_VIEN_LayDSCourierCode</t>
+  </si>
+  <si>
+    <t>sp_NHAN_VIEN_Login</t>
+  </si>
+  <si>
+    <t>sp_NHAN_VIEN_NHOM_LayDSChiTietThanhVienNhom</t>
+  </si>
+  <si>
+    <t>sp_NHAN_VIEN_NHOM_LayDSChonThanhVienNhom</t>
+  </si>
+  <si>
+    <t>sp_NHAN_VIEN_NHOM_LayDSChonThanhVienNhomCaCon</t>
+  </si>
+  <si>
+    <t>sp_NHAN_VIEN_NHOM_LayDSKhongThanhVienNhom</t>
+  </si>
+  <si>
+    <t>sp_NHAN_VIEN_NHOM_Them</t>
+  </si>
+  <si>
+    <t>sp_NHAN_VIEN_NHOM_Xoa</t>
+  </si>
+  <si>
+    <t>sp_NHANVIEN_ChangePass</t>
+  </si>
+  <si>
+    <t>sp_NHANVIEN_LayDS</t>
+  </si>
+  <si>
+    <t>sp_NHOM_LayCayNhomCon</t>
+  </si>
+  <si>
+    <t>sp_NHOM_LayChuoiMaChaCuaMaNhom</t>
+  </si>
+  <si>
+    <t>sp_NHOM_LayDSChonTheoNhanVien</t>
+  </si>
+  <si>
+    <t>sp_NHOM_LayDSNhom</t>
+  </si>
+  <si>
+    <t>sp_NHOM_LayDSNhomCon</t>
+  </si>
+  <si>
+    <t>sp_NHOM_LayDSNhomDuyetChonTheoNhanVien</t>
+  </si>
+  <si>
+    <t>sp_NHOM_LayThongTinChiTietTheoMa</t>
+  </si>
+  <si>
+    <t>sp_NHOM_LayThongTinTheoMa</t>
+  </si>
+  <si>
+    <t>sp_NHOM_Sua</t>
+  </si>
+  <si>
+    <t>sp_NHOM_Them</t>
+  </si>
+  <si>
+    <t>sp_Remove_NhanvienQuyen</t>
+  </si>
+  <si>
+    <t>sp_RULE_GetWidthID</t>
+  </si>
+  <si>
+    <t>sp_SAN_PHAM_VAY_CapNhatSuDung</t>
+  </si>
+  <si>
+    <t>sp_SAN_PHAM_VAY_CheckExist</t>
+  </si>
+  <si>
+    <t>sp_SAN_PHAM_VAY_DemTrungMa</t>
+  </si>
+  <si>
+    <t>sp_SAN_PHAM_VAY_LayDSByID</t>
+  </si>
+  <si>
+    <t>sp_SAN_PHAM_VAY_LayDSByIDAndMaHS</t>
+  </si>
+  <si>
+    <t>sp_SAN_PHAM_VAY_LayDSThongTinByID</t>
+  </si>
+  <si>
+    <t>sp_SAN_PHAM_VAY_Them</t>
+  </si>
+  <si>
+    <t>sp_SAN_PHAM_VAY_Xoa</t>
+  </si>
+  <si>
+    <t>sp_TAI_LIEU_HS_LayDS</t>
+  </si>
+  <si>
+    <t>sp_TAI_LIEU_HS_Them</t>
+  </si>
+  <si>
+    <t>sp_TAI_LIEU_HS_XoaTatCa</t>
+  </si>
+  <si>
+    <t>sp_TRANG_THAI_HS_LayDSTrangThai</t>
+  </si>
+  <si>
+    <t>sp_Update_NhanvienQuyen</t>
+  </si>
+  <si>
+    <t>sp_UpdateCustomer</t>
+  </si>
+  <si>
+    <t>sp_UpdateUser</t>
+  </si>
+  <si>
+    <t>updateExistingFile</t>
+  </si>
+  <si>
+    <t>updateRoleMenuByRoleId</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +527,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,10 +556,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -696,7 +1027,7 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -707,7 +1038,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -718,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -729,7 +1060,7 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -740,7 +1071,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -751,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -762,7 +1093,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -773,44 +1104,53 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -823,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,6 +1302,9 @@
       <c r="B12" t="s">
         <v>39</v>
       </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -970,6 +1313,9 @@
       <c r="B13" t="s">
         <v>40</v>
       </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -978,13 +1324,19 @@
       <c r="B14" t="s">
         <v>41</v>
       </c>
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -994,32 +1346,1247 @@
       <c r="B16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="59.5546875" customWidth="1"/>
+    <col min="2" max="2" width="67.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" t="s">
+        <v>149</v>
+      </c>
+      <c r="C82" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" t="s">
+        <v>153</v>
+      </c>
+      <c r="C86" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>156</v>
+      </c>
+      <c r="B87" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>156</v>
+      </c>
+      <c r="B90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>156</v>
+      </c>
+      <c r="B92" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>156</v>
+      </c>
+      <c r="B94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>156</v>
+      </c>
+      <c r="B101" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>156</v>
+      </c>
+      <c r="B103" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>156</v>
+      </c>
+      <c r="B105" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>156</v>
+      </c>
+      <c r="B106" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>156</v>
+      </c>
+      <c r="B107" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>156</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>